--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_100ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_100ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2027,28 +2027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>910.9493510860607</v>
+        <v>971.84201329988</v>
       </c>
       <c r="AB2" t="n">
-        <v>1246.401090404974</v>
+        <v>1329.717117240582</v>
       </c>
       <c r="AC2" t="n">
-        <v>1127.44631967164</v>
+        <v>1202.810781840836</v>
       </c>
       <c r="AD2" t="n">
-        <v>910949.3510860606</v>
+        <v>971842.01329988</v>
       </c>
       <c r="AE2" t="n">
-        <v>1246401.090404974</v>
+        <v>1329717.117240582</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.72099859128113e-06</v>
+        <v>3.184297976134077e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.830208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1127446.31967164</v>
+        <v>1202810.781840836</v>
       </c>
     </row>
     <row r="3">
@@ -2133,28 +2133,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>308.0130693369495</v>
+        <v>344.5145303234124</v>
       </c>
       <c r="AB3" t="n">
-        <v>421.4370700444007</v>
+        <v>471.3799792968866</v>
       </c>
       <c r="AC3" t="n">
-        <v>381.2157075700051</v>
+        <v>426.3921356587471</v>
       </c>
       <c r="AD3" t="n">
-        <v>308013.0693369495</v>
+        <v>344514.5303234124</v>
       </c>
       <c r="AE3" t="n">
-        <v>421437.0700444008</v>
+        <v>471379.9792968866</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.206539716568555e-06</v>
+        <v>5.932937994017718e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.739583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>381215.7075700052</v>
+        <v>426392.1356587471</v>
       </c>
     </row>
     <row r="4">
@@ -2239,28 +2239,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>237.5642438264268</v>
+        <v>261.8701937077656</v>
       </c>
       <c r="AB4" t="n">
-        <v>325.0458789979197</v>
+        <v>358.3023519285497</v>
       </c>
       <c r="AC4" t="n">
-        <v>294.0239565112112</v>
+        <v>324.1064783409974</v>
       </c>
       <c r="AD4" t="n">
-        <v>237564.2438264268</v>
+        <v>261870.1937077655</v>
       </c>
       <c r="AE4" t="n">
-        <v>325045.8789979197</v>
+        <v>358302.3519285497</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.717135212837432e-06</v>
+        <v>6.877673343383596e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.088541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>294023.9565112112</v>
+        <v>324106.4783409974</v>
       </c>
     </row>
     <row r="5">
@@ -2345,28 +2345,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>235.2756007141861</v>
+        <v>259.5815505955248</v>
       </c>
       <c r="AB5" t="n">
-        <v>321.9144565239454</v>
+        <v>355.1709294545736</v>
       </c>
       <c r="AC5" t="n">
-        <v>291.191392603173</v>
+        <v>321.2739144329587</v>
       </c>
       <c r="AD5" t="n">
-        <v>235275.6007141861</v>
+        <v>259581.5505955248</v>
       </c>
       <c r="AE5" t="n">
-        <v>321914.4565239454</v>
+        <v>355170.9294545737</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.742519103223371e-06</v>
+        <v>6.924640186466357e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.060416666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>291191.392603173</v>
+        <v>321273.9144329587</v>
       </c>
     </row>
   </sheetData>
@@ -2642,28 +2642,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>547.0834726998067</v>
+        <v>594.0529803761041</v>
       </c>
       <c r="AB2" t="n">
-        <v>748.5437429672855</v>
+        <v>812.8094955184292</v>
       </c>
       <c r="AC2" t="n">
-        <v>677.1037787262285</v>
+        <v>735.2360980514413</v>
       </c>
       <c r="AD2" t="n">
-        <v>547083.4726998068</v>
+        <v>594052.9803761041</v>
       </c>
       <c r="AE2" t="n">
-        <v>748543.7429672856</v>
+        <v>812809.4955184292</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.272634996715242e-06</v>
+        <v>4.331993044949496e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.917708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>677103.7787262285</v>
+        <v>735236.0980514414</v>
       </c>
     </row>
     <row r="3">
@@ -2748,28 +2748,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>235.4573747621646</v>
+        <v>258.8995476815814</v>
       </c>
       <c r="AB3" t="n">
-        <v>322.1631677956943</v>
+        <v>354.2377829798713</v>
       </c>
       <c r="AC3" t="n">
-        <v>291.4163672202148</v>
+        <v>320.4298261481226</v>
       </c>
       <c r="AD3" t="n">
-        <v>235457.3747621646</v>
+        <v>258899.5476815814</v>
       </c>
       <c r="AE3" t="n">
-        <v>322163.1677956943</v>
+        <v>354237.7829798713</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.666036877628438e-06</v>
+        <v>6.98803207702458e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.288541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>291416.3672202148</v>
+        <v>320429.8261481225</v>
       </c>
     </row>
     <row r="4">
@@ -2854,28 +2854,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>222.7383055473258</v>
+        <v>246.1804784667393</v>
       </c>
       <c r="AB4" t="n">
-        <v>304.7603761702292</v>
+        <v>336.834991354234</v>
       </c>
       <c r="AC4" t="n">
-        <v>275.674473602507</v>
+        <v>304.6879325303657</v>
       </c>
       <c r="AD4" t="n">
-        <v>222738.3055473258</v>
+        <v>246180.4784667393</v>
       </c>
       <c r="AE4" t="n">
-        <v>304760.3761702292</v>
+        <v>336834.9913542341</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.78888201258602e-06</v>
+        <v>7.222193863238067e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.148958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>275674.473602507</v>
+        <v>304687.9325303658</v>
       </c>
     </row>
   </sheetData>
@@ -3151,28 +3151,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>207.9855215581917</v>
+        <v>239.2905081771922</v>
       </c>
       <c r="AB2" t="n">
-        <v>284.5749662694109</v>
+        <v>327.407830040044</v>
       </c>
       <c r="AC2" t="n">
-        <v>257.4155308922157</v>
+        <v>296.1604862608951</v>
       </c>
       <c r="AD2" t="n">
-        <v>207985.5215581917</v>
+        <v>239290.5081771922</v>
       </c>
       <c r="AE2" t="n">
-        <v>284574.9662694109</v>
+        <v>327407.830040044</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.611329433106604e-06</v>
+        <v>7.69118659700781e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.857291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>257415.5308922156</v>
+        <v>296160.4862608951</v>
       </c>
     </row>
     <row r="3">
@@ -3257,28 +3257,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>208.8052046883395</v>
+        <v>240.1101913073401</v>
       </c>
       <c r="AB3" t="n">
-        <v>285.6964928899462</v>
+        <v>328.5293566605793</v>
       </c>
       <c r="AC3" t="n">
-        <v>258.4300205861599</v>
+        <v>297.1749759548393</v>
       </c>
       <c r="AD3" t="n">
-        <v>208805.2046883395</v>
+        <v>240110.1913073401</v>
       </c>
       <c r="AE3" t="n">
-        <v>285696.4928899462</v>
+        <v>328529.3566605793</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.617728617926284e-06</v>
+        <v>7.704815185988285e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.848958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>258430.0205861599</v>
+        <v>297174.9759548393</v>
       </c>
     </row>
   </sheetData>
@@ -3554,28 +3554,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>248.494211839002</v>
+        <v>281.3242591230346</v>
       </c>
       <c r="AB2" t="n">
-        <v>340.0007434288746</v>
+        <v>384.9202624825144</v>
       </c>
       <c r="AC2" t="n">
-        <v>307.5515496701646</v>
+        <v>348.1840128701638</v>
       </c>
       <c r="AD2" t="n">
-        <v>248494.211839002</v>
+        <v>281324.2591230345</v>
       </c>
       <c r="AE2" t="n">
-        <v>340000.7434288746</v>
+        <v>384920.2624825144</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.391208763707128e-06</v>
+        <v>6.885326238568399e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.948958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>307551.5496701646</v>
+        <v>348184.0128701638</v>
       </c>
     </row>
     <row r="3">
@@ -3660,28 +3660,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>209.5296581755181</v>
+        <v>231.3879989218978</v>
       </c>
       <c r="AB3" t="n">
-        <v>286.6877221117354</v>
+        <v>316.5952682428526</v>
       </c>
       <c r="AC3" t="n">
-        <v>259.3266482822209</v>
+        <v>286.3798601860984</v>
       </c>
       <c r="AD3" t="n">
-        <v>209529.658175518</v>
+        <v>231387.9989218978</v>
       </c>
       <c r="AE3" t="n">
-        <v>286687.7221117354</v>
+        <v>316595.2682428526</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.754817228300335e-06</v>
+        <v>7.623577132651482e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.469791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>259326.6482822209</v>
+        <v>286379.8601860984</v>
       </c>
     </row>
   </sheetData>
@@ -3957,28 +3957,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>224.4221444969985</v>
+        <v>254.3910171873864</v>
       </c>
       <c r="AB2" t="n">
-        <v>307.0642789069018</v>
+        <v>348.0690126552216</v>
       </c>
       <c r="AC2" t="n">
-        <v>277.7584950955402</v>
+        <v>314.8497946054386</v>
       </c>
       <c r="AD2" t="n">
-        <v>224422.1444969985</v>
+        <v>254391.0171873863</v>
       </c>
       <c r="AE2" t="n">
-        <v>307064.2789069018</v>
+        <v>348069.0126552216</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.390206446651239e-06</v>
+        <v>7.54932756786898e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.373958333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>277758.4950955402</v>
+        <v>314849.7946054386</v>
       </c>
     </row>
   </sheetData>
@@ -4254,28 +4254,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>625.296359877641</v>
+        <v>672.6346889874162</v>
       </c>
       <c r="AB2" t="n">
-        <v>855.5580657130557</v>
+        <v>920.3284560207371</v>
       </c>
       <c r="AC2" t="n">
-        <v>773.9048047046878</v>
+        <v>832.4935998672179</v>
       </c>
       <c r="AD2" t="n">
-        <v>625296.359877641</v>
+        <v>672634.6889874162</v>
       </c>
       <c r="AE2" t="n">
-        <v>855558.0657130558</v>
+        <v>920328.4560207371</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.127337699198848e-06</v>
+        <v>4.02229283253686e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.322916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>773904.8047046878</v>
+        <v>832493.5998672178</v>
       </c>
     </row>
     <row r="3">
@@ -4360,28 +4360,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>251.451212108641</v>
+        <v>275.1204214178072</v>
       </c>
       <c r="AB3" t="n">
-        <v>344.0466416514375</v>
+        <v>376.4318980402192</v>
       </c>
       <c r="AC3" t="n">
-        <v>311.2113130448213</v>
+        <v>340.505766016747</v>
       </c>
       <c r="AD3" t="n">
-        <v>251451.212108641</v>
+        <v>275120.4214178072</v>
       </c>
       <c r="AE3" t="n">
-        <v>344046.6416514376</v>
+        <v>376431.8980402192</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.552941112357131e-06</v>
+        <v>6.71777197200124e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.385416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>311211.3130448213</v>
+        <v>340505.766016747</v>
       </c>
     </row>
     <row r="4">
@@ -4466,28 +4466,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>224.3674826632284</v>
+        <v>248.0366919723912</v>
       </c>
       <c r="AB4" t="n">
-        <v>306.9894881744278</v>
+        <v>339.374744563026</v>
       </c>
       <c r="AC4" t="n">
-        <v>277.6908422856039</v>
+        <v>306.9852952574774</v>
       </c>
       <c r="AD4" t="n">
-        <v>224367.4826632284</v>
+        <v>248036.6919723912</v>
       </c>
       <c r="AE4" t="n">
-        <v>306989.4881744278</v>
+        <v>339374.744563026</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.781318830768031e-06</v>
+        <v>7.149580264695545e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.119791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>277690.8422856039</v>
+        <v>306985.2952574774</v>
       </c>
     </row>
   </sheetData>
@@ -4763,28 +4763,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>232.5910660471237</v>
+        <v>261.9898330015229</v>
       </c>
       <c r="AB2" t="n">
-        <v>318.2413577591616</v>
+        <v>358.4660476883817</v>
       </c>
       <c r="AC2" t="n">
-        <v>287.8688492292725</v>
+        <v>324.2545512072595</v>
       </c>
       <c r="AD2" t="n">
-        <v>232591.0660471237</v>
+        <v>261989.8330015229</v>
       </c>
       <c r="AE2" t="n">
-        <v>318241.3577591616</v>
+        <v>358466.0476883817</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.195447167734763e-06</v>
+        <v>7.325775922328498e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.834375000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>287868.8492292725</v>
+        <v>324254.5512072595</v>
       </c>
     </row>
   </sheetData>
@@ -5060,28 +5060,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>375.586508475819</v>
+        <v>409.7723804757899</v>
       </c>
       <c r="AB2" t="n">
-        <v>513.8940306039391</v>
+        <v>560.6686488485303</v>
       </c>
       <c r="AC2" t="n">
-        <v>464.8487055779002</v>
+        <v>507.1592199058168</v>
       </c>
       <c r="AD2" t="n">
-        <v>375586.508475819</v>
+        <v>409772.3804757899</v>
       </c>
       <c r="AE2" t="n">
-        <v>513894.0306039391</v>
+        <v>560668.6488485304</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.774090411800618e-06</v>
+        <v>5.437178869382308e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.838541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>464848.7055779002</v>
+        <v>507159.2199058168</v>
       </c>
     </row>
     <row r="3">
@@ -5166,28 +5166,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>214.4827425075109</v>
+        <v>237.188072494804</v>
       </c>
       <c r="AB3" t="n">
-        <v>293.4647506094235</v>
+        <v>324.5311847864858</v>
       </c>
       <c r="AC3" t="n">
-        <v>265.456886691711</v>
+        <v>293.5583839929385</v>
       </c>
       <c r="AD3" t="n">
-        <v>214482.7425075109</v>
+        <v>237188.072494804</v>
       </c>
       <c r="AE3" t="n">
-        <v>293464.7506094235</v>
+        <v>324531.1847864857</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.789748646758392e-06</v>
+        <v>7.427854973569586e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.273958333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>265456.886691711</v>
+        <v>293558.3839929385</v>
       </c>
     </row>
     <row r="4">
@@ -5272,28 +5272,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>215.3253936242955</v>
+        <v>238.0307236115887</v>
       </c>
       <c r="AB4" t="n">
-        <v>294.6177030425512</v>
+        <v>325.6841372196135</v>
       </c>
       <c r="AC4" t="n">
-        <v>266.4998029628002</v>
+        <v>294.6013002640278</v>
       </c>
       <c r="AD4" t="n">
-        <v>215325.3936242955</v>
+        <v>238030.7236115886</v>
       </c>
       <c r="AE4" t="n">
-        <v>294617.7030425512</v>
+        <v>325684.1372196135</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.791925501517946e-06</v>
+        <v>7.432121578814323e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.271875</v>
       </c>
       <c r="AH4" t="n">
-        <v>266499.8029628002</v>
+        <v>294601.3002640278</v>
       </c>
     </row>
   </sheetData>
@@ -5569,28 +5569,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>485.3619786463857</v>
+        <v>520.384951298971</v>
       </c>
       <c r="AB2" t="n">
-        <v>664.093671843254</v>
+        <v>712.0136481310268</v>
       </c>
       <c r="AC2" t="n">
-        <v>600.7135038638555</v>
+        <v>644.0600648708322</v>
       </c>
       <c r="AD2" t="n">
-        <v>485361.9786463857</v>
+        <v>520384.9512989711</v>
       </c>
       <c r="AE2" t="n">
-        <v>664093.671843254</v>
+        <v>712013.6481310268</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.435144099648658e-06</v>
+        <v>4.682059063652653e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.516666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>600713.5038638555</v>
+        <v>644060.0648708323</v>
       </c>
     </row>
     <row r="3">
@@ -5675,28 +5675,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>223.6233609076734</v>
+        <v>246.8298640936616</v>
       </c>
       <c r="AB3" t="n">
-        <v>305.9713479601429</v>
+        <v>337.7235094178606</v>
       </c>
       <c r="AC3" t="n">
-        <v>276.7698719444013</v>
+        <v>305.4916516770431</v>
       </c>
       <c r="AD3" t="n">
-        <v>223623.3609076734</v>
+        <v>246829.8640936616</v>
       </c>
       <c r="AE3" t="n">
-        <v>305971.3479601429</v>
+        <v>337723.5094178606</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.748695928175354e-06</v>
+        <v>7.207629211726551e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.233333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>276769.8719444013</v>
+        <v>305491.6516770431</v>
       </c>
     </row>
     <row r="4">
@@ -5781,28 +5781,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>219.8455681711668</v>
+        <v>243.0520713571551</v>
       </c>
       <c r="AB4" t="n">
-        <v>300.8024052736043</v>
+        <v>332.554566731322</v>
       </c>
       <c r="AC4" t="n">
-        <v>272.0942458932078</v>
+        <v>300.8160256258494</v>
       </c>
       <c r="AD4" t="n">
-        <v>219845.5681711668</v>
+        <v>243052.071357155</v>
       </c>
       <c r="AE4" t="n">
-        <v>300802.4052736043</v>
+        <v>332554.566731322</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.79531467783079e-06</v>
+        <v>7.297263225332514e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.181249999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>272094.2458932077</v>
+        <v>300816.0256258494</v>
       </c>
     </row>
   </sheetData>
@@ -6078,28 +6078,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>805.8800441283594</v>
+        <v>854.166214539817</v>
       </c>
       <c r="AB2" t="n">
-        <v>1102.64062929477</v>
+        <v>1168.70789788722</v>
       </c>
       <c r="AC2" t="n">
-        <v>997.4061552007192</v>
+        <v>1057.1680564047</v>
       </c>
       <c r="AD2" t="n">
-        <v>805880.0441283594</v>
+        <v>854166.2145398171</v>
       </c>
       <c r="AE2" t="n">
-        <v>1102640.62929477</v>
+        <v>1168707.89788722</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.850044011909292e-06</v>
+        <v>3.446491674964028e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.279166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>997406.1552007193</v>
+        <v>1057168.0564047</v>
       </c>
     </row>
     <row r="3">
@@ -6184,28 +6184,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>287.909630369331</v>
+        <v>312.1806821026417</v>
       </c>
       <c r="AB3" t="n">
-        <v>393.9306579477723</v>
+        <v>427.1393816925197</v>
       </c>
       <c r="AC3" t="n">
-        <v>356.3344688383871</v>
+        <v>386.3737985976724</v>
       </c>
       <c r="AD3" t="n">
-        <v>287909.630369331</v>
+        <v>312180.6821026417</v>
       </c>
       <c r="AE3" t="n">
-        <v>393930.6579477723</v>
+        <v>427139.3816925198</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.320550340427924e-06</v>
+        <v>6.185933432347407e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.6125</v>
       </c>
       <c r="AH3" t="n">
-        <v>356334.4688383871</v>
+        <v>386373.7985976724</v>
       </c>
     </row>
     <row r="4">
@@ -6290,28 +6290,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>231.987619641319</v>
+        <v>256.0880791740372</v>
       </c>
       <c r="AB4" t="n">
-        <v>317.4156957645634</v>
+        <v>350.391007734447</v>
       </c>
       <c r="AC4" t="n">
-        <v>287.1219872566147</v>
+        <v>316.950181733244</v>
       </c>
       <c r="AD4" t="n">
-        <v>231987.619641319</v>
+        <v>256088.0791740372</v>
       </c>
       <c r="AE4" t="n">
-        <v>317415.6957645634</v>
+        <v>350391.007734447</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.752143947848143e-06</v>
+        <v>6.989959588139428e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.082291666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>287121.9872566147</v>
+        <v>316950.181733244</v>
       </c>
     </row>
     <row r="5">
@@ -6396,28 +6396,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>232.3783242252129</v>
+        <v>256.4787837579312</v>
       </c>
       <c r="AB5" t="n">
-        <v>317.9502750129167</v>
+        <v>350.9255869828002</v>
       </c>
       <c r="AC5" t="n">
-        <v>287.6055470117918</v>
+        <v>317.4337414884212</v>
       </c>
       <c r="AD5" t="n">
-        <v>232378.3242252129</v>
+        <v>256478.7837579312</v>
       </c>
       <c r="AE5" t="n">
-        <v>317950.2750129167</v>
+        <v>350925.5869828002</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.749644087089661e-06</v>
+        <v>6.985302537151876e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.085416666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>287605.5470117918</v>
+        <v>317433.7414884212</v>
       </c>
     </row>
   </sheetData>
@@ -6693,28 +6693,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>294.2678815928719</v>
+        <v>316.508938079641</v>
       </c>
       <c r="AB2" t="n">
-        <v>402.6302977780678</v>
+        <v>433.0614924694275</v>
       </c>
       <c r="AC2" t="n">
-        <v>364.2038272533003</v>
+        <v>391.7307114337667</v>
       </c>
       <c r="AD2" t="n">
-        <v>294267.8815928719</v>
+        <v>316508.938079641</v>
       </c>
       <c r="AE2" t="n">
-        <v>402630.2977780678</v>
+        <v>433061.4924694275</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.171544294138143e-06</v>
+        <v>6.357352148752214e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.225</v>
       </c>
       <c r="AH2" t="n">
-        <v>364203.8272533003</v>
+        <v>391730.7114337666</v>
       </c>
     </row>
     <row r="3">
@@ -6799,28 +6799,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>211.0239572316693</v>
+        <v>233.1796728638665</v>
       </c>
       <c r="AB3" t="n">
-        <v>288.7322880041823</v>
+        <v>319.0467155733286</v>
       </c>
       <c r="AC3" t="n">
-        <v>261.1760836754595</v>
+        <v>288.5973448239826</v>
       </c>
       <c r="AD3" t="n">
-        <v>211023.9572316693</v>
+        <v>233179.6728638665</v>
       </c>
       <c r="AE3" t="n">
-        <v>288732.2880041823</v>
+        <v>319046.7155733287</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.771617783177522e-06</v>
+        <v>7.560197870315885e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.39375</v>
       </c>
       <c r="AH3" t="n">
-        <v>261176.0836754595</v>
+        <v>288597.3448239826</v>
       </c>
     </row>
   </sheetData>
@@ -7096,28 +7096,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>210.3574063701784</v>
+        <v>242.2078125362225</v>
       </c>
       <c r="AB2" t="n">
-        <v>287.8202837093422</v>
+        <v>331.3994145664521</v>
       </c>
       <c r="AC2" t="n">
-        <v>260.3511197905126</v>
+        <v>299.7711195623281</v>
       </c>
       <c r="AD2" t="n">
-        <v>210357.4063701784</v>
+        <v>242207.8125362225</v>
       </c>
       <c r="AE2" t="n">
-        <v>287820.2837093422</v>
+        <v>331399.4145664521</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.647059680719067e-06</v>
+        <v>7.629876931579663e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.733333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>260351.1197905126</v>
+        <v>299771.1195623281</v>
       </c>
     </row>
     <row r="3">
@@ -7202,28 +7202,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>208.5935420518679</v>
+        <v>240.443948217912</v>
       </c>
       <c r="AB3" t="n">
-        <v>285.4068867328293</v>
+        <v>328.9860175899392</v>
       </c>
       <c r="AC3" t="n">
-        <v>258.1680540342134</v>
+        <v>297.5880538060288</v>
       </c>
       <c r="AD3" t="n">
-        <v>208593.5420518679</v>
+        <v>240443.948217912</v>
       </c>
       <c r="AE3" t="n">
-        <v>285406.8867328293</v>
+        <v>328986.0175899392</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.678876995272777e-06</v>
+        <v>7.6964407434146e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.692708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>258168.0540342134</v>
+        <v>297588.0538060289</v>
       </c>
     </row>
   </sheetData>
@@ -12144,28 +12144,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>220.1868666759657</v>
+        <v>240.7177265903044</v>
       </c>
       <c r="AB2" t="n">
-        <v>301.2693849448972</v>
+        <v>329.3606132372957</v>
       </c>
       <c r="AC2" t="n">
-        <v>272.5166576800827</v>
+        <v>297.9268985705501</v>
       </c>
       <c r="AD2" t="n">
-        <v>220186.8666759657</v>
+        <v>240717.7265903044</v>
       </c>
       <c r="AE2" t="n">
-        <v>301269.3849448973</v>
+        <v>329360.6132372957</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.521578105017268e-06</v>
+        <v>7.655402882593247e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.070833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>272516.6576800827</v>
+        <v>297926.8985705501</v>
       </c>
     </row>
   </sheetData>
@@ -12441,28 +12441,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>258.3914323581057</v>
+        <v>296.3556008676964</v>
       </c>
       <c r="AB2" t="n">
-        <v>353.5425571778259</v>
+        <v>405.4868073935568</v>
       </c>
       <c r="AC2" t="n">
-        <v>319.8009517208688</v>
+        <v>366.7877156002234</v>
       </c>
       <c r="AD2" t="n">
-        <v>258391.4323581057</v>
+        <v>296355.6008676964</v>
       </c>
       <c r="AE2" t="n">
-        <v>353542.5571778259</v>
+        <v>405486.8073935568</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.891050932613211e-06</v>
+        <v>6.87644259613903e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.629166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>319800.9517208688</v>
+        <v>366787.7156002234</v>
       </c>
     </row>
   </sheetData>
@@ -12738,28 +12738,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>435.1182367616785</v>
+        <v>469.6027543191186</v>
       </c>
       <c r="AB2" t="n">
-        <v>595.3479675991452</v>
+        <v>642.5312058707781</v>
       </c>
       <c r="AC2" t="n">
-        <v>538.5287931476025</v>
+        <v>581.2089293806815</v>
       </c>
       <c r="AD2" t="n">
-        <v>435118.2367616785</v>
+        <v>469602.7543191186</v>
       </c>
       <c r="AE2" t="n">
-        <v>595347.9675991453</v>
+        <v>642531.2058707781</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.593782120876423e-06</v>
+        <v>5.033437026323474e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.179166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>538528.7931476026</v>
+        <v>581208.9293806815</v>
       </c>
     </row>
     <row r="3">
@@ -12844,28 +12844,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>216.9079624681056</v>
+        <v>239.8692237243918</v>
       </c>
       <c r="AB3" t="n">
-        <v>296.7830435526608</v>
+        <v>328.1996541828501</v>
       </c>
       <c r="AC3" t="n">
-        <v>268.4584864137001</v>
+        <v>296.8767398188442</v>
       </c>
       <c r="AD3" t="n">
-        <v>216907.9624681055</v>
+        <v>239869.2237243918</v>
       </c>
       <c r="AE3" t="n">
-        <v>296783.0435526608</v>
+        <v>328199.65418285</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.792273485858713e-06</v>
+        <v>7.359203236089954e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.226041666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>268458.4864137002</v>
+        <v>296876.7398188441</v>
       </c>
     </row>
     <row r="4">
@@ -12950,28 +12950,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>217.9374037295327</v>
+        <v>240.898664985819</v>
       </c>
       <c r="AB4" t="n">
-        <v>298.191570502288</v>
+        <v>329.6081811324772</v>
       </c>
       <c r="AC4" t="n">
-        <v>269.7325855281354</v>
+        <v>298.1508389332793</v>
       </c>
       <c r="AD4" t="n">
-        <v>217937.4037295327</v>
+        <v>240898.664985819</v>
       </c>
       <c r="AE4" t="n">
-        <v>298191.570502288</v>
+        <v>329608.1811324772</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.791658006919192e-06</v>
+        <v>7.358008851080445e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.227083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>269732.5855281354</v>
+        <v>298150.8389332793</v>
       </c>
     </row>
   </sheetData>
@@ -13247,28 +13247,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>701.4536695046055</v>
+        <v>749.4009923211033</v>
       </c>
       <c r="AB2" t="n">
-        <v>959.7598565680448</v>
+        <v>1025.36349893217</v>
       </c>
       <c r="AC2" t="n">
-        <v>868.1617228886087</v>
+        <v>927.5042457007927</v>
       </c>
       <c r="AD2" t="n">
-        <v>701453.6695046055</v>
+        <v>749400.9923211033</v>
       </c>
       <c r="AE2" t="n">
-        <v>959759.8565680449</v>
+        <v>1025363.49893217</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.988351294913136e-06</v>
+        <v>3.730926918782826e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.767708333333332</v>
       </c>
       <c r="AH2" t="n">
-        <v>868161.7228886087</v>
+        <v>927504.2457007926</v>
       </c>
     </row>
     <row r="3">
@@ -13353,28 +13353,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>269.1614211751543</v>
+        <v>293.0498312373826</v>
       </c>
       <c r="AB3" t="n">
-        <v>368.2785310156848</v>
+        <v>400.9637075450983</v>
       </c>
       <c r="AC3" t="n">
-        <v>333.1305448977117</v>
+        <v>362.6962940530913</v>
       </c>
       <c r="AD3" t="n">
-        <v>269161.4211751543</v>
+        <v>293049.8312373827</v>
       </c>
       <c r="AE3" t="n">
-        <v>368278.5310156848</v>
+        <v>400963.7075450983</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.435355044880123e-06</v>
+        <v>6.446073510908224e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.495833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>333130.5448977117</v>
+        <v>362696.2940530913</v>
       </c>
     </row>
     <row r="4">
@@ -13459,28 +13459,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>228.1639199754381</v>
+        <v>252.0523300376662</v>
       </c>
       <c r="AB4" t="n">
-        <v>312.1839411919841</v>
+        <v>344.8691177213809</v>
       </c>
       <c r="AC4" t="n">
-        <v>282.389543997627</v>
+        <v>311.9552931530018</v>
       </c>
       <c r="AD4" t="n">
-        <v>228163.9199754382</v>
+        <v>252052.3300376662</v>
       </c>
       <c r="AE4" t="n">
-        <v>312183.9411919841</v>
+        <v>344869.1177213809</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.769267581505356e-06</v>
+        <v>7.072624399879062e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.097916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>282389.543997627</v>
+        <v>311955.2931530018</v>
       </c>
     </row>
     <row r="5">
@@ -13565,28 +13565,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>228.3394495434286</v>
+        <v>252.2278596056566</v>
       </c>
       <c r="AB5" t="n">
-        <v>312.4241084907266</v>
+        <v>345.1092850201233</v>
       </c>
       <c r="AC5" t="n">
-        <v>282.6067900664544</v>
+        <v>312.1725392218293</v>
       </c>
       <c r="AD5" t="n">
-        <v>228339.4495434286</v>
+        <v>252227.8596056566</v>
       </c>
       <c r="AE5" t="n">
-        <v>312424.1084907266</v>
+        <v>345109.2850201233</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.777719186562035e-06</v>
+        <v>7.088482925932054e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.088541666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>282606.7900664544</v>
+        <v>312172.5392218293</v>
       </c>
     </row>
   </sheetData>
@@ -13862,28 +13862,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>312.4465798926316</v>
+        <v>349.0021003995446</v>
       </c>
       <c r="AB2" t="n">
-        <v>427.5031947793666</v>
+        <v>477.52007065267</v>
       </c>
       <c r="AC2" t="n">
-        <v>386.7028898741253</v>
+        <v>431.9462253132068</v>
       </c>
       <c r="AD2" t="n">
-        <v>312446.5798926316</v>
+        <v>349002.1003995446</v>
       </c>
       <c r="AE2" t="n">
-        <v>427503.1947793666</v>
+        <v>477520.07065267</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.385539886307566e-06</v>
+        <v>5.966054218150481e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.319791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>386702.8898741253</v>
+        <v>431946.2253132068</v>
       </c>
     </row>
   </sheetData>
@@ -14159,28 +14159,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>222.4462903299605</v>
+        <v>254.8027903984172</v>
       </c>
       <c r="AB2" t="n">
-        <v>304.3608280670281</v>
+        <v>348.6324189287057</v>
       </c>
       <c r="AC2" t="n">
-        <v>275.3130578095059</v>
+        <v>315.3594301749272</v>
       </c>
       <c r="AD2" t="n">
-        <v>222446.2903299605</v>
+        <v>254802.7903984172</v>
       </c>
       <c r="AE2" t="n">
-        <v>304360.8280670281</v>
+        <v>348632.4189287057</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.576264408070502e-06</v>
+        <v>7.364542137399917e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.75625</v>
       </c>
       <c r="AH2" t="n">
-        <v>275313.057809506</v>
+        <v>315359.4301749272</v>
       </c>
     </row>
     <row r="3">
@@ -14265,28 +14265,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>208.5534021828431</v>
+        <v>230.2666369861003</v>
       </c>
       <c r="AB3" t="n">
-        <v>285.3519655931836</v>
+        <v>315.0609713712981</v>
       </c>
       <c r="AC3" t="n">
-        <v>258.1183744910532</v>
+        <v>284.9919944545653</v>
       </c>
       <c r="AD3" t="n">
-        <v>208553.4021828431</v>
+        <v>230266.6369861003</v>
       </c>
       <c r="AE3" t="n">
-        <v>285351.9655931836</v>
+        <v>315060.9713712981</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.724540576222467e-06</v>
+        <v>7.669884797708554e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.566666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>258118.3744910532</v>
+        <v>284991.9944545653</v>
       </c>
     </row>
   </sheetData>
@@ -14562,28 +14562,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>332.226305419425</v>
+        <v>366.0102274057456</v>
       </c>
       <c r="AB2" t="n">
-        <v>454.5666878650292</v>
+        <v>500.791340368161</v>
       </c>
       <c r="AC2" t="n">
-        <v>411.1834811635434</v>
+        <v>452.9965177084836</v>
       </c>
       <c r="AD2" t="n">
-        <v>332226.3054194251</v>
+        <v>366010.2274057457</v>
       </c>
       <c r="AE2" t="n">
-        <v>454566.6878650292</v>
+        <v>500791.340368161</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.968206441951161e-06</v>
+        <v>5.880563443285078e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.517708333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>411183.4811635434</v>
+        <v>452996.5177084836</v>
       </c>
     </row>
     <row r="3">
@@ -14668,28 +14668,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>212.936899239803</v>
+        <v>235.3742625513292</v>
       </c>
       <c r="AB3" t="n">
-        <v>291.3496596527548</v>
+        <v>322.0494500021775</v>
       </c>
       <c r="AC3" t="n">
-        <v>263.5436570473972</v>
+        <v>291.3135024933072</v>
       </c>
       <c r="AD3" t="n">
-        <v>212936.899239803</v>
+        <v>235374.2625513292</v>
       </c>
       <c r="AE3" t="n">
-        <v>291349.6596527548</v>
+        <v>322049.4500021776</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.782934223199688e-06</v>
+        <v>7.494689178922732e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.329166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>263543.6570473972</v>
+        <v>291313.5024933072</v>
       </c>
     </row>
   </sheetData>
